--- a/medicine/Mort/Cimetière_animalier_de_Liège/Cimetière_animalier_de_Liège.xlsx
+++ b/medicine/Mort/Cimetière_animalier_de_Liège/Cimetière_animalier_de_Liège.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_animalier_de_Li%C3%A8ge</t>
+          <t>Cimetière_animalier_de_Liège</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière animalier de Liège est une des cinq nécropoles d'animaux réservées à l'enterrement des animaux de compagnie en Belgique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_animalier_de_Li%C3%A8ge</t>
+          <t>Cimetière_animalier_de_Liège</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière animalier de Liège est situé rue des Neuf Journaux à l'arrière du cimetière de Sainte-Walburge mais sans aucune communication directe avec ce dernier.
 Inauguré en septembre 1993 sur un terrain appartenant à la Ville de Liège et à l'instigation de celle-ci, il est géré par une société anonyme. Chaque concession est réservée à un seul propriétaire d'animaux qui a la possibilité d'y mélanger les espèces et d'y ériger un monument dont certains peuvent prendre l'allure d'un mausolée.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_animalier_de_Li%C3%A8ge</t>
+          <t>Cimetière_animalier_de_Liège</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Particularités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chevaux sont ne sont pas enterrés dans un cercueil mais à une profondeur de quatre mètres sur un lit de paille, recouverts d'un autre lit de paille puis de terre.
 Conformément au code wallon de la démocratie locale, un columbarium réservé aux cendres humaines permet aux propriétaires des animaux enterrés de reposer dans l'enceinte du cimetière.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_animalier_de_Li%C3%A8ge</t>
+          <t>Cimetière_animalier_de_Liège</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En Belgique, les questions relatives aux cimetières et à leur environnement sont de la compétence des régions.
 En Région wallonne :
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_animalier_de_Li%C3%A8ge</t>
+          <t>Cimetière_animalier_de_Liège</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Autres cimetières animaliers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Région flamande : Gand
 Région wallonne : Charleroi, Harzé et Rosières</t>
